--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -1,19 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Documents\GitHub\stp-project\Tasks\processing\Allocation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5839E2-E9CF-4C7E-BF11-094C82883849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Excel 40 sent" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="52">
+  <si>
+    <t>FileNumber</t>
+  </si>
+  <si>
+    <t>TAPlistNumber</t>
+  </si>
+  <si>
+    <t>ItemFreqRating</t>
+  </si>
+  <si>
+    <t>ItemValenceRating</t>
+  </si>
+  <si>
+    <t>SentenceType</t>
+  </si>
+  <si>
+    <t>sentContent</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>"אני חושבת שאני מכוערת."</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>"אני חסרת משמעות."</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>"למה אני אף פעם לא מצליחה?"</t>
+  </si>
+  <si>
+    <t>"אני כל כך חלשה."</t>
+  </si>
+  <si>
+    <t>"אני מאוכזבת מהבחירות שלי."</t>
+  </si>
+  <si>
+    <t>"שום דבר לא מרגיש לי טוב."</t>
+  </si>
+  <si>
+    <t>"אני לא יכולה לסבול את זה יותר."</t>
+  </si>
+  <si>
+    <t>"אני לא מצליחה לארגן דברים."</t>
+  </si>
+  <si>
+    <t>"אני שונאת את עצמי."</t>
+  </si>
+  <si>
+    <t>"אני חסרת ערך."</t>
+  </si>
+  <si>
+    <t>"הלוואי שהייתי יכולה להיעלם."</t>
+  </si>
+  <si>
+    <t>"הלוואי שהייתי מישהו אחר."</t>
+  </si>
+  <si>
+    <t>"אני אף פעם לא אצליח."</t>
+  </si>
+  <si>
+    <t>"משהו לא בסדר איתי."</t>
+  </si>
+  <si>
+    <t>"העתיד שלי בזבל."</t>
+  </si>
+  <si>
+    <t>"קשה לי להתרכז."</t>
+  </si>
+  <si>
+    <t>"אני פסיבית וחסרת מוטיבציה."</t>
+  </si>
+  <si>
+    <t>"למה אני כל כך מדוכאת?"</t>
+  </si>
+  <si>
+    <t>"נמאס לי לחשוב על זה."</t>
+  </si>
+  <si>
+    <t>"העתיד שלי חסר תקווה."</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ntr</t>
+  </si>
+  <si>
+    <t>"שתיתי מספיק מים היום?"</t>
+  </si>
+  <si>
+    <t>"איפה שמתי את המפתחות?"</t>
+  </si>
+  <si>
+    <t>"יש לי תוכניות למחר."</t>
+  </si>
+  <si>
+    <t>"מה אני אלבש היום?"</t>
+  </si>
+  <si>
+    <t>"אני צריכה לבדוק את המייל."</t>
+  </si>
+  <si>
+    <t>"אני מבינה עברית."</t>
+  </si>
+  <si>
+    <t>"מה בא לי לאכול?"</t>
+  </si>
+  <si>
+    <t>"אני צריכה לעשות כביסה."</t>
+  </si>
+  <si>
+    <t>"אני צריכה לשלוח הודעה."</t>
+  </si>
+  <si>
+    <t>"אני נושמת."</t>
+  </si>
+  <si>
+    <t>"אני רוצה לקרוא ספר."</t>
+  </si>
+  <si>
+    <t>"אני רוצה לצאת לאימון."</t>
+  </si>
+  <si>
+    <t>"מה יש לי לעשות היום?"</t>
+  </si>
+  <si>
+    <t>"יש לי פגישה בקרוב."</t>
+  </si>
+  <si>
+    <t>"אני רוצה להסתפר."</t>
+  </si>
+  <si>
+    <t>"אני צריכה לעשות קניות."</t>
+  </si>
+  <si>
+    <t>"מה אעשה הערב?"</t>
+  </si>
+  <si>
+    <t>"אני צריכה לעשות טלפון."</t>
+  </si>
+  <si>
+    <t>"הערב אני בבית."</t>
+  </si>
+  <si>
+    <t>"אני נועלת נעליים."</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,14 +227,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,835 +568,1645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>FileNumber</v>
-      </c>
-      <c r="B1" t="str">
-        <v>TAPlistNumber</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ItemFreqRating</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ItemValenceRating</v>
-      </c>
-      <c r="E1" t="str">
-        <v>SentenceType</v>
-      </c>
-      <c r="F1" t="str">
-        <v>sentContent</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>59</v>
       </c>
-      <c r="C2" t="str">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>-3</v>
       </c>
-      <c r="E2" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F2" t="str">
-        <v>"אני חושבת שאני מכוערת."</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>66</v>
       </c>
-      <c r="C3" t="str">
-        <v>3</v>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>-3</v>
       </c>
-      <c r="E3" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F3" t="str">
-        <v>"אני חסרת משמעות."</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>-3</v>
       </c>
-      <c r="E4" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F4" t="str">
-        <v>"למה אני אף פעם לא מצליחה?"</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" t="str">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
         <v>-2</v>
       </c>
-      <c r="E5" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F5" t="str">
-        <v>"אני כל כך חלשה."</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" t="str">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
         <v>-3</v>
       </c>
-      <c r="E6" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F6" t="str">
-        <v>"אני מאוכזבת מהבחירות שלי."</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" t="str">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>-3</v>
       </c>
-      <c r="E7" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F7" t="str">
-        <v>"שום דבר לא מרגיש לי טוב."</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="str">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
         <v>-3</v>
       </c>
-      <c r="E8" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F8" t="str">
-        <v>"אני לא יכולה לסבול את זה יותר."</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
-      <c r="C9" t="str">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>-2</v>
       </c>
-      <c r="E9" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F9" t="str">
-        <v>"אני לא מצליחה לארגן דברים."</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" t="str">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10">
         <v>-3</v>
       </c>
-      <c r="E10" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F10" t="str">
-        <v>"אני שונאת את עצמי."</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11" t="str">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
       <c r="D11">
         <v>-3</v>
       </c>
-      <c r="E11" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F11" t="str">
-        <v>"אני חסרת ערך."</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" t="str">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
       <c r="D12">
         <v>-3</v>
       </c>
-      <c r="E12" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F12" t="str">
-        <v>"הלוואי שהייתי יכולה להיעלם."</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>18</v>
       </c>
-      <c r="C13" t="str">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="D13">
         <v>-3</v>
       </c>
-      <c r="E13" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F13" t="str">
-        <v>"הלוואי שהייתי מישהו אחר."</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14" t="str">
-        <v>2</v>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
       <c r="D14">
         <v>-3</v>
       </c>
-      <c r="E14" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F14" t="str">
-        <v>"אני אף פעם לא אצליח."</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
-      <c r="C15" t="str">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>11</v>
       </c>
       <c r="D15">
         <v>-3</v>
       </c>
-      <c r="E15" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F15" t="str">
-        <v>"משהו לא בסדר איתי."</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>26</v>
       </c>
-      <c r="C16" t="str">
-        <v>2</v>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
       <c r="D16">
         <v>-3</v>
       </c>
-      <c r="E16" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F16" t="str">
-        <v>"העתיד שלי בזבל."</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>32</v>
       </c>
-      <c r="C17" t="str">
-        <v>3</v>
+      <c r="C17" t="s">
+        <v>9</v>
       </c>
       <c r="D17">
         <v>-2</v>
       </c>
-      <c r="E17" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F17" t="str">
-        <v>"קשה לי להתרכז."</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>34</v>
       </c>
-      <c r="C18" t="str">
-        <v>3</v>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
         <v>-2</v>
       </c>
-      <c r="E18" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F18" t="str">
-        <v>"אני פסיבית וחסרת מוטיבציה."</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>35</v>
       </c>
-      <c r="C19" t="str">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>11</v>
       </c>
       <c r="D19">
         <v>-3</v>
       </c>
-      <c r="E19" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F19" t="str">
-        <v>"למה אני כל כך מדוכאת?"</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
-      <c r="C20" t="str">
-        <v>3</v>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
         <v>-2</v>
       </c>
-      <c r="E20" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F20" t="str">
-        <v>"נמאס לי לחשוב על זה."</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>48</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>-3</v>
-      </c>
-      <c r="E21" t="str">
-        <v>neg</v>
-      </c>
-      <c r="F21" t="str">
-        <v>"העתיד שלי חסר תקווה."</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>91</v>
       </c>
-      <c r="C22" t="str">
-        <v>5</v>
-      </c>
-      <c r="D22">
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F22" t="str">
-        <v>"שתיתי מספיק מים היום?"</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>72</v>
       </c>
-      <c r="C23" t="str">
-        <v>4</v>
-      </c>
-      <c r="D23">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E23" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F23" t="str">
-        <v>"איפה שמתי את המפתחות?"</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>80</v>
       </c>
-      <c r="C24" t="str">
-        <v>4</v>
-      </c>
-      <c r="D24">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E24" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F24" t="str">
-        <v>"יש לי תוכניות למחר."</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>92</v>
       </c>
-      <c r="C25" t="str">
-        <v>4</v>
-      </c>
-      <c r="D25">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E25" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F25" t="str">
-        <v>"מה אני אלבש היום?"</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>100</v>
       </c>
-      <c r="C26" t="str">
-        <v>4</v>
-      </c>
-      <c r="D26">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E26" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F26" t="str">
-        <v>"אני צריכה לבדוק את המייל."</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>74</v>
       </c>
-      <c r="C27" t="str">
-        <v>4</v>
-      </c>
-      <c r="D27">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
         <v>1</v>
       </c>
-      <c r="E27" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F27" t="str">
-        <v>"אני מבינה עברית."</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>93</v>
       </c>
-      <c r="C28" t="str">
-        <v>4</v>
-      </c>
-      <c r="D28">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="E28" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F28" t="str">
-        <v>"מה בא לי לאכול?"</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>97</v>
       </c>
-      <c r="C29" t="str">
-        <v>4</v>
-      </c>
-      <c r="D29">
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="E29" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F29" t="str">
-        <v>"אני צריכה לעשות כביסה."</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>99</v>
       </c>
-      <c r="C30" t="str">
-        <v>4</v>
-      </c>
-      <c r="D30">
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
         <v>-1</v>
       </c>
-      <c r="E30" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F30" t="str">
-        <v>"אני צריכה לשלוח הודעה."</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>92</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>93</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>97</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>99</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="C31" t="str">
-        <v>3</v>
-      </c>
-      <c r="D31">
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
         <v>0</v>
       </c>
-      <c r="E31" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F31" t="str">
-        <v>"אני נושמת."</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
+      <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
         <v>76</v>
       </c>
-      <c r="C32" t="str">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
         <v>0</v>
       </c>
-      <c r="E32" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F32" t="str">
-        <v>"אני רוצה לקרוא ספר."</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
+      <c r="E72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
         <v>81</v>
       </c>
-      <c r="C33" t="str">
-        <v>3</v>
-      </c>
-      <c r="D33">
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
         <v>0</v>
       </c>
-      <c r="E33" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F33" t="str">
-        <v>"אני רוצה לצאת לאימון."</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
+      <c r="E73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
         <v>86</v>
       </c>
-      <c r="C34" t="str">
-        <v>3</v>
-      </c>
-      <c r="D34">
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="E34" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F34" t="str">
-        <v>"מה יש לי לעשות היום?"</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
+      <c r="E74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
         <v>95</v>
       </c>
-      <c r="C35" t="str">
-        <v>3</v>
-      </c>
-      <c r="D35">
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
         <v>0</v>
       </c>
-      <c r="E35" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F35" t="str">
-        <v>"יש לי פגישה בקרוב."</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
+      <c r="E75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
         <v>85</v>
       </c>
-      <c r="C36" t="str">
-        <v>3</v>
-      </c>
-      <c r="D36">
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1">
         <v>-1</v>
       </c>
-      <c r="E36" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F36" t="str">
-        <v>"אני רוצה להסתפר."</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
+      <c r="E76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
         <v>90</v>
       </c>
-      <c r="C37" t="str">
-        <v>3</v>
-      </c>
-      <c r="D37">
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E37" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F37" t="str">
-        <v>"אני צריכה לעשות קניות."</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
+      <c r="E77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
         <v>96</v>
       </c>
-      <c r="C38" t="str">
-        <v>3</v>
-      </c>
-      <c r="D38">
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="E38" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F38" t="str">
-        <v>"מה אעשה הערב?"</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
+      <c r="E78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
         <v>98</v>
       </c>
-      <c r="C39" t="str">
-        <v>3</v>
-      </c>
-      <c r="D39">
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1">
         <v>-1</v>
       </c>
-      <c r="E39" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F39" t="str">
-        <v>"אני צריכה לעשות טלפון."</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
+      <c r="E79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
         <v>87</v>
       </c>
-      <c r="C40" t="str">
-        <v>3</v>
-      </c>
-      <c r="D40">
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
         <v>2</v>
       </c>
-      <c r="E40" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F40" t="str">
-        <v>"הערב אני בבית."</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
         <v>69</v>
       </c>
-      <c r="C41" t="str">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1">
         <v>0</v>
       </c>
-      <c r="E41" t="str">
-        <v>ntr</v>
-      </c>
-      <c r="F41" t="str">
-        <v>"אני נועלת נעליים."</v>
+      <c r="E81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError sqref="A1:F21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Documents\GitHub\stp-project\Tasks\processing\Allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Documents\GitHub\stp-project\Subjects\subject 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5839E2-E9CF-4C7E-BF11-094C82883849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00562E04-CD64-49D6-BE1C-A24D836E60A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,14 +571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="7" max="7" width="27.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
@@ -1008,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1028,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -1048,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1068,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1088,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1108,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1128,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1148,7 +1149,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1168,7 +1169,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1188,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1208,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1228,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1248,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1268,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1288,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -1328,7 +1329,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
@@ -1348,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -1368,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -1388,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -1808,7 +1809,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>30</v>
@@ -1828,7 +1829,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1848,7 +1849,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
@@ -1868,7 +1869,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -1888,7 +1889,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
@@ -1908,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
@@ -1928,7 +1929,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
@@ -1948,7 +1949,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
@@ -1968,7 +1969,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -1988,7 +1989,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -2008,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>9</v>
@@ -2028,7 +2029,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
@@ -2048,7 +2049,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>9</v>
@@ -2068,7 +2069,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -2088,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>9</v>
@@ -2108,7 +2109,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>9</v>
@@ -2128,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -2148,7 +2149,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -2168,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>9</v>
@@ -2188,7 +2189,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
@@ -2205,6 +2206,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F21" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Documents\GitHub\stp-project\Subjects\subject 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\stp-project\Subjects\subject 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00562E04-CD64-49D6-BE1C-A24D836E60A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9177F1-FD94-4898-BB0E-9C6D3DF04D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4710" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel 40 sent" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1809,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>30</v>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 1/audio_data.xlsx
+++ b/Subjects/subject 1/audio_data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
